--- a/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.588955714215067</v>
+        <v>0.411044285784933</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.579135389634821</v>
+        <v>0.420864610365179</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0259110291556054</v>
+        <v>0.9740889708443951</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.280487725523877</v>
+        <v>0.719512274476123</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.934028354913252</v>
+        <v>0.183956380243502</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.158804347826087</v>
+        <v>-0.0647843320885305</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0044708482041611</v>
+        <v>-0.263807192519623</v>
       </c>
       <c r="M2" t="n">
-        <v>0.392031030683964</v>
+        <v>0.0907905612080025</v>
       </c>
       <c r="N2" t="n">
-        <v>12.2157190635451</v>
+        <v>-6.47843320885305</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.411044285784933</v>
+        <v>0.0380207379151219</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.947368421052632</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.79</v>
+        <v>10.855</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0132939035486803</v>
+        <v>-0.119117334278624</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.109666657949915</v>
+        <v>-0.201193284872355</v>
       </c>
       <c r="M3" t="n">
-        <v>0.117065169144487</v>
+        <v>-0.0188867780080193</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.123205778949771</v>
+        <v>-1.09734992426185</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.388855449661521</v>
+        <v>0.0189019900661598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.413793103448276</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0010989321472035</v>
+        <v>0.000278331532903</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0015346638655462</v>
+        <v>0.0026093722044562</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12.4234693877551</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9622160176265671</v>
+        <v>0.542754693561501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0350877192982456</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.754385964912281</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="K5" t="n">
-        <v>-21.7076236263736</v>
+        <v>-0.324090505767524</v>
       </c>
       <c r="L5" t="n">
-        <v>-50.3629608579863</v>
+        <v>-25.8353814586709</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.665161241040981</v>
+        <v>19.4305276000869</v>
       </c>
       <c r="N5" t="n">
-        <v>-18.0896863553114</v>
+        <v>-0.221979798470907</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.796088930805538</v>
+        <v>0.799189217650543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.653846153846154</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="H6" t="n">
-        <v>0.423076923076923</v>
+        <v>0.39622641509434</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.397770673065207</v>
+        <v>0.709320486500722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.137931034482759</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="H7" t="n">
-        <v>0.172413793103448</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0004036696960766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003483671681713</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.303883015703927</v>
+        <v>0.0029835528725788</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.896551724137931</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.417</v>
+        <v>0.399</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0117903502747253</v>
+        <v>0.0872778588598901</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0241006167343461</v>
+        <v>0.018476518749636</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07777136700864951</v>
+        <v>0.123175498256609</v>
       </c>
       <c r="N8" t="n">
-        <v>2.82742212823148</v>
+        <v>21.874150090198</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.420864610365179</v>
+        <v>0.033519864752239</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.842105263157895</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.029999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.008138378397917799</v>
+        <v>-0.105062258687259</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0840971637804015</v>
+        <v>-0.181784199554429</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0597579519828813</v>
+        <v>-0.0128659204610884</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.101349668716288</v>
+        <v>-1.32487085355938</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.470774322985455</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.431</v>
+        <v>0.417</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0130446428571429</v>
+        <v>0.0837449347527473</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0329372244896026</v>
+        <v>0.0264517679126757</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0795853349235747</v>
+        <v>0.120987277767327</v>
       </c>
       <c r="N10" t="n">
-        <v>3.02659927079881</v>
+        <v>20.0827181661264</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.934898240404039</v>
+        <v>0.0019000340820393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.189655172413793</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>0.79</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.491808797127469</v>
+        <v>0.08432083037929811</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.35794200749278</v>
+        <v>0.0427921922840711</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.148230406824014</v>
       </c>
       <c r="N11" t="n">
-        <v>-14.0516799179277</v>
+        <v>10.6735228328225</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.441549069872438</v>
+        <v>0.106885121028636</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.879310344827586</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>0.025</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0033447802197802</v>
+        <v>0.0018524936601859</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0471701769917185</v>
+        <v>-0.0006974637676151</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0578522125592312</v>
+        <v>0.0049026845637583</v>
       </c>
       <c r="N12" t="n">
-        <v>0.445970695970696</v>
+        <v>7.40997464074387</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.861594172052665</v>
+        <v>0.582897398358259</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.637931034482759</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.025</v>
+        <v>1.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0021153474903474</v>
+        <v>-0.0306932773109244</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0066335582500179</v>
+        <v>-0.2727805132157</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0009048489101893</v>
+        <v>0.270210459183673</v>
       </c>
       <c r="N13" t="n">
-        <v>-8.46138996138996</v>
+        <v>-1.91832983193277</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.960374948659265</v>
+        <v>0.058832500726669</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0103092783505155</v>
       </c>
       <c r="H14" t="n">
-        <v>0.948275862068966</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.170583791208791</v>
+        <v>-0.0450102692834322</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.00463082330208</v>
+        <v>-0.127493861724639</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0543825133409893</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.8652096311332</v>
+        <v>-3.75085577361935</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.210531343808098</v>
+        <v>0.9254663231043569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.619565217391304</v>
+        <v>0.860869565217391</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>10.68</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0337878815263684</v>
+        <v>0.0556682211101001</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0997818809979928</v>
+        <v>-0.010307667396747</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0236296115815489</v>
+        <v>0.109547736582564</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.59906780972064</v>
+        <v>0.521238025375469</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.030736421331218</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.094017094017094</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9740889708443951</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.87378640776699</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.69</v>
+        <v>0.011</v>
       </c>
       <c r="K16" t="n">
-        <v>0.095326236263736</v>
+        <v>0.0003831297921864</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0100152612824595</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.14804364198906</v>
+        <v>0.0007483938854678</v>
       </c>
       <c r="N16" t="n">
-        <v>0.891732799473676</v>
+        <v>3.48299811078573</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.137640355001273</v>
+        <v>0.619089239730553</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.238095238095238</v>
+        <v>0.7155172413793101</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.011</v>
+        <v>145</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002220364741641</v>
+        <v>-0.911295730817855</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-9.845013477088949</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0006865601503759</v>
+        <v>6.51560111533865</v>
       </c>
       <c r="N17" t="n">
-        <v>2.01851340149212</v>
+        <v>-0.628479814357141</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.75613342955896</v>
+        <v>0.153041656084297</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0192307692307692</v>
+        <v>0.743119266055046</v>
       </c>
       <c r="H18" t="n">
-        <v>0.711538461538462</v>
+        <v>0.339449541284404</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.73733650918931</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-13.4314481170465</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.75184113492083</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.66952607799237</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,25 +2116,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.105803523841928</v>
+        <v>0.848533765299137</v>
       </c>
       <c r="G19" t="n">
-        <v>0.744897959183674</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="H19" t="n">
-        <v>0.346938775510204</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.000199647334613</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.589676384213378</v>
+        <v>0.0059871342397331</v>
       </c>
       <c r="G20" t="n">
-        <v>0.152380952380952</v>
+        <v>0.136752136752137</v>
       </c>
       <c r="H20" t="n">
-        <v>0.180952380952381</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.363</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0134016195424793</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001429410309574</v>
+        <v>0.0019769810196988</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0306335035371777</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.69190621004938</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0561995438532715</v>
+        <v>0.385348600185856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.152380952380952</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.828571428571429</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3523</v>
+        <v>7.845</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0052895310047095</v>
+        <v>-0.0045770676691728</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0307623207255338</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0273599307506024</v>
+        <v>0.0229356357927787</v>
       </c>
       <c r="N21" t="n">
-        <v>1.50142804561725</v>
+        <v>-0.0583437561398704</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_12d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.719512274476123</v>
+        <v>0.0062703890046044</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0683760683760684</v>
       </c>
       <c r="H22" t="n">
-        <v>0.747572815533981</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.9</v>
+        <v>0.395</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0124234693877548</v>
+        <v>0.0151518543956044</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0220588805736521</v>
+        <v>0.0016723901098901</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0456578787356899</v>
+        <v>0.0323192583904757</v>
       </c>
       <c r="N22" t="n">
-        <v>0.157259106174112</v>
+        <v>3.8359125052163</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_12d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0694863960849426</v>
+        <v>0.100119105710691</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0761904761904762</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.838095238095238</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.361</v>
+        <v>0.79</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0073585164835164</v>
+        <v>0.0127625770610968</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0029199834812354</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0274860040370329</v>
+        <v>0.0280700581647117</v>
       </c>
       <c r="N23" t="n">
-        <v>2.03837021704057</v>
+        <v>1.61551608368314</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.767606754110375</v>
+        <v>0.278157074079418</v>
       </c>
       <c r="G24" t="n">
-        <v>0.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4</v>
+        <v>0.521367521367521</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0.026</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0003075373025393</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.250858516483516</v>
+        <v>-0.0006487242004833</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0015051510989011</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.18283577899731</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.331157642024261</v>
+        <v>0.684381247228613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.857142857142857</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.74</v>
+        <v>2.48</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0073100414078674</v>
+        <v>-0.016192119910165</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0141787036819392</v>
+        <v>-0.107755402016219</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0200686813186813</v>
+        <v>0.0478615056345393</v>
       </c>
       <c r="N25" t="n">
-        <v>0.987843433495606</v>
+        <v>-0.652908060893751</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.549746280124905</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.542857142857143</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.025</v>
+        <v>0.441</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0316569861818887</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0013346997309905</v>
+        <v>-0.0913187742954448</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0012323153435056</v>
+        <v>0.0316237267544153</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-7.17845491652804</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2811,11 +2811,7 @@
           <t>Mana_12d</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2825,46 +2821,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.808556414743508</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.952380952380952</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.08</v>
+        <v>89</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0398309705561614</v>
+        <v>1.44990260461459</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.129156643041916</v>
+        <v>-8.45184236069189</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0294883567125078</v>
+        <v>10.2742696551701</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.91495050750776</v>
+        <v>1.62910405012875</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,11 +2898,7 @@
           <t>Mana_12d</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,7 +2908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2943,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.35</v>
+        <v>5.787</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0366918513068568</v>
+        <v>-0.725948001373329</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0913187742954448</v>
+        <v>-0.964761591198501</v>
       </c>
       <c r="M28" t="n">
-        <v>0.018335593378961</v>
+        <v>0.174627066662813</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.4833860876734</v>
+        <v>-12.5444617482863</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3003,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,7 +3010,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.110335680959923</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3030,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>89</v>
+        <v>0.361</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.90701567592455</v>
+        <v>0.0127877461706783</v>
       </c>
       <c r="L29" t="n">
-        <v>-8.45184236069189</v>
+        <v>-0.0172662887545533</v>
       </c>
       <c r="M29" t="n">
-        <v>0.362881071995021</v>
+        <v>0.0299770834715587</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.14271424261185</v>
+        <v>3.54231195863666</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3090,11 +3082,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3097,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.326711047377659</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.04</v>
+        <v>92.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.725948001373329</v>
+        <v>-0.465553884026258</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.964761591198501</v>
+        <v>-1.83232247353283</v>
       </c>
       <c r="M30" t="n">
-        <v>0.58873496581131</v>
+        <v>1.83741185208213</v>
       </c>
       <c r="N30" t="n">
-        <v>-14.4037301859788</v>
+        <v>-0.503301496244603</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3169,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3204,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.35</v>
+        <v>5.4135</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0014212664658097</v>
+        <v>0.123826487991646</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0291593627904058</v>
+        <v>-0.225044357289284</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0305582185806196</v>
+        <v>0.297043086376326</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.406076133088506</v>
+        <v>2.28736469920839</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3217,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3255,180 +3247,6 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Kiwitea at Kimbolton Rd</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.071106620968196</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>92</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-1.16145131733216</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-2.09814753579124</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.0394470569929698</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-1.26244708405669</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1821031.91</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5545591.67</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Mana_12d</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Kiwitea at Kimbolton Rd</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.698916236125902</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.113838521388334</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.47066184433349</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.275478215145717</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.2587008211971</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1821031.91</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5545591.67</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Mana_12d</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/trend_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -136,40 +136,43 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -648,31 +651,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.183956380243502</v>
+        <v>0.027922730745562</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.822222222222222</v>
+        <v>0.815789473684211</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K2">
-        <v>-0.0647843320885305</v>
+        <v>-0.240373194221509</v>
       </c>
       <c r="L2">
-        <v>-0.263807192519623</v>
+        <v>-0.518321417128048</v>
       </c>
       <c r="M2">
-        <v>0.0907905612080025</v>
+        <v>-0.0144679511713732</v>
       </c>
       <c r="N2">
-        <v>-6.47843320885305</v>
+        <v>-27.4712221967439</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -687,19 +690,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,31 +722,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.0380207379151219</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.931034482758621</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.855</v>
+        <v>10.79</v>
       </c>
       <c r="K3">
-        <v>-0.119117334278624</v>
+        <v>-0.050034622140155</v>
       </c>
       <c r="L3">
-        <v>-0.201193284872355</v>
+        <v>-0.161331620465902</v>
       </c>
       <c r="M3">
-        <v>-0.0188867780080193</v>
+        <v>0.0458878800591977</v>
       </c>
       <c r="N3">
-        <v>-1.09734992426185</v>
+        <v>-0.46371290213304</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -758,19 +761,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,31 +793,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.0189019900661598</v>
+        <v>0.21766351690281</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.440677966101695</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K4">
-        <v>0.0014908163265306</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="L4">
-        <v>0.000278331532903</v>
+        <v>-0.000719866971212</v>
       </c>
       <c r="M4">
-        <v>0.0026093722044562</v>
+        <v>0.0015648615914084</v>
       </c>
       <c r="N4">
-        <v>12.4234693877551</v>
+        <v>3.04070929070929</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -829,19 +832,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,31 +864,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.542754693561501</v>
+        <v>0.697275582383156</v>
       </c>
       <c r="G5">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.810344827586207</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K5">
-        <v>-0.324090505767524</v>
+        <v>-6.10087912087912</v>
       </c>
       <c r="L5">
-        <v>-25.8353814586709</v>
+        <v>-26.1715496450652</v>
       </c>
       <c r="M5">
-        <v>19.4305276000869</v>
+        <v>14.3952849842292</v>
       </c>
       <c r="N5">
-        <v>-0.221979798470907</v>
+        <v>-4.80384182746387</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -900,19 +903,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,16 +935,16 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.799189217650543</v>
+        <v>0.365105573741231</v>
       </c>
       <c r="G6">
-        <v>0.679245283018868</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H6">
-        <v>0.39622641509434</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -971,19 +974,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.709320486500722</v>
+        <v>0.999813527767033</v>
       </c>
       <c r="G7">
-        <v>0.169491525423729</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H7">
         <v>0.152542372881356</v>
@@ -1015,25 +1018,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0006563342318058999</v>
       </c>
       <c r="L7">
-        <v>-0.0004036696960766</v>
+        <v>-0.0010458884288021</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.000321444591711</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-21.8778077268643</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1821031.91</v>
@@ -1042,19 +1045,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1071,40 +1074,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.0029835528725788</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G8">
-        <v>0.0847457627118644</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H8">
-        <v>0.88135593220339</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.399</v>
+        <v>0.435</v>
       </c>
       <c r="K8">
-        <v>0.0872778588598901</v>
+        <v>0.0242705614697802</v>
       </c>
       <c r="L8">
-        <v>0.018476518749636</v>
+        <v>-0.0138391222377911</v>
       </c>
       <c r="M8">
-        <v>0.123175498256609</v>
+        <v>0.0981404525485924</v>
       </c>
       <c r="N8">
-        <v>21.874150090198</v>
+        <v>5.57943941834028</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1821031.91</v>
@@ -1113,19 +1116,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,37 +1148,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.033519864752239</v>
+        <v>0.470584974868149</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.87719298245614</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.93</v>
+        <v>7.965</v>
       </c>
       <c r="K9">
-        <v>-0.105062258687259</v>
+        <v>-0.0038650793650792</v>
       </c>
       <c r="L9">
-        <v>-0.181784199554429</v>
+        <v>-0.087011877501223</v>
       </c>
       <c r="M9">
-        <v>-0.0128659204610884</v>
+        <v>0.0810604392149422</v>
       </c>
       <c r="N9">
-        <v>-1.32487085355938</v>
+        <v>-0.0485257924052641</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1821031.91</v>
@@ -1184,16 +1187,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1210,40 +1213,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0057699942451294</v>
+        <v>0.213639453085988</v>
       </c>
       <c r="G10">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.9830508474576271</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.417</v>
+        <v>0.452</v>
       </c>
       <c r="K10">
-        <v>0.0837449347527473</v>
+        <v>0.0278034855769231</v>
       </c>
       <c r="L10">
-        <v>0.0264517679126757</v>
+        <v>-0.0109995039976858</v>
       </c>
       <c r="M10">
-        <v>0.120987277767327</v>
+        <v>0.102700443164339</v>
       </c>
       <c r="N10">
-        <v>20.0827181661264</v>
+        <v>6.15121362321306</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1821031.91</v>
@@ -1252,19 +1255,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,43 +1281,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>0.0019000340820393</v>
+        <v>0.523477888763545</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.88135593220339</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="K11">
-        <v>0.08432083037929811</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0427921922840711</v>
+        <v>-0.0780033447901505</v>
       </c>
       <c r="M11">
-        <v>0.148230406824014</v>
+        <v>0.070011005745563</v>
       </c>
       <c r="N11">
-        <v>10.6735228328225</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1821031.91</v>
@@ -1323,19 +1326,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,43 +1352,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.106885121028636</v>
+        <v>0.25578581972192</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.6949152542372879</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="K12">
-        <v>0.0018524936601859</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L12">
-        <v>-0.0006974637676151</v>
+        <v>-0.0017648894498271</v>
       </c>
       <c r="M12">
-        <v>0.0049026845637583</v>
+        <v>0.0030073148066658</v>
       </c>
       <c r="N12">
-        <v>7.40997464074387</v>
+        <v>4.36275680840898</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1821031.91</v>
@@ -1394,19 +1397,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,43 +1423,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.582897398358259</v>
+        <v>0.358400258497247</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K13">
-        <v>-0.0306932773109244</v>
+        <v>0.08074856913919411</v>
       </c>
       <c r="L13">
-        <v>-0.2727805132157</v>
+        <v>-0.113618368872179</v>
       </c>
       <c r="M13">
-        <v>0.270210459183673</v>
+        <v>0.395645388500393</v>
       </c>
       <c r="N13">
-        <v>-1.91832983193277</v>
+        <v>5.76775493851387</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1821031.91</v>
@@ -1465,19 +1468,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,37 +1500,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.058832500726669</v>
+        <v>0.051397503312307</v>
       </c>
       <c r="G14">
-        <v>0.0103092783505155</v>
+        <v>0.0106382978723404</v>
       </c>
       <c r="H14">
-        <v>0.618556701030928</v>
+        <v>0.606382978723404</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="K14">
-        <v>-0.0450102692834322</v>
+        <v>-0.0397551020408163</v>
       </c>
       <c r="L14">
-        <v>-0.127493861724639</v>
+        <v>-0.0996648181005749</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-3.75085577361935</v>
+        <v>-4.18474758324382</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1821031.91</v>
@@ -1536,19 +1539,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,13 +1571,13 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.9254663231043569</v>
+        <v>0.817871994241836</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.860869565217391</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1583,22 +1586,22 @@
         <v>10.68</v>
       </c>
       <c r="K15">
-        <v>0.0556682211101001</v>
+        <v>0.0400095366417023</v>
       </c>
       <c r="L15">
-        <v>-0.010307667396747</v>
+        <v>-0.023193847779341</v>
       </c>
       <c r="M15">
-        <v>0.109547736582564</v>
+        <v>0.100026195658556</v>
       </c>
       <c r="N15">
-        <v>0.521238025375469</v>
+        <v>0.374621129603954</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1821031.91</v>
@@ -1607,19 +1610,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.030736421331218</v>
+        <v>0.548250751718755</v>
       </c>
       <c r="G16">
-        <v>0.094017094017094</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="H16">
-        <v>0.222222222222222</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1654,22 +1657,22 @@
         <v>0.011</v>
       </c>
       <c r="K16">
-        <v>0.0003831297921864</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.000353870782716</v>
       </c>
       <c r="M16">
-        <v>0.0007483938854678</v>
+        <v>0.000313720851583</v>
       </c>
       <c r="N16">
-        <v>3.48299811078573</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1821031.91</v>
@@ -1678,19 +1681,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,31 +1713,31 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.619089239730553</v>
+        <v>0.872433488720104</v>
       </c>
       <c r="G17">
-        <v>0.0172413793103448</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H17">
-        <v>0.7155172413793101</v>
+        <v>0.760683760683761</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K17">
-        <v>-0.911295730817855</v>
+        <v>-5.03939953361834</v>
       </c>
       <c r="L17">
-        <v>-9.845013477088949</v>
+        <v>-13.1053289106899</v>
       </c>
       <c r="M17">
-        <v>6.51560111533865</v>
+        <v>2.19545024420338</v>
       </c>
       <c r="N17">
-        <v>-0.628479814357141</v>
+        <v>-3.59957109544167</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
@@ -1749,19 +1752,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1778,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.153041656084297</v>
+        <v>0.0904196922644246</v>
       </c>
       <c r="G18">
-        <v>0.743119266055046</v>
+        <v>0.711711711711712</v>
       </c>
       <c r="H18">
-        <v>0.339449541284404</v>
+        <v>0.369369369369369</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -1811,7 +1814,7 @@
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1821031.91</v>
@@ -1820,19 +1823,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1849,16 +1852,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.848533765299137</v>
+        <v>0.994808656271472</v>
       </c>
       <c r="G19">
-        <v>0.162393162393162</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="H19">
-        <v>0.162393162393162</v>
+        <v>0.161016949152542</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1867,22 +1870,22 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.000142120622568</v>
       </c>
       <c r="L19">
-        <v>-0.000199647334613</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.55301556420233</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1821031.91</v>
@@ -1891,19 +1894,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1920,40 +1923,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.0059871342397331</v>
+        <v>0.114855480611198</v>
       </c>
       <c r="G20">
-        <v>0.136752136752137</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="H20">
-        <v>0.82051282051282</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.363</v>
+        <v>0.4335</v>
       </c>
       <c r="K20">
-        <v>0.0134016195424793</v>
+        <v>0.003851275510204</v>
       </c>
       <c r="L20">
-        <v>0.0019769810196988</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0306335035371777</v>
+        <v>0.0148743038295543</v>
       </c>
       <c r="N20">
-        <v>3.69190621004938</v>
+        <v>0.888414189205094</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1821031.91</v>
@@ -1962,19 +1965,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,31 +1997,31 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.385348600185856</v>
+        <v>0.85259413063933</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.701754385964912</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.845</v>
+        <v>7.89</v>
       </c>
       <c r="K21">
-        <v>-0.0045770676691728</v>
+        <v>0.0176138919982388</v>
       </c>
       <c r="L21">
-        <v>-0.0307623207255338</v>
+        <v>-0.0095547876778383</v>
       </c>
       <c r="M21">
-        <v>0.0229356357927787</v>
+        <v>0.0456394876852491</v>
       </c>
       <c r="N21">
-        <v>-0.0583437561398704</v>
+        <v>0.223243244591113</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
@@ -2033,16 +2036,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,37 +2065,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.0062703890046044</v>
+        <v>0.144290264442653</v>
       </c>
       <c r="G22">
-        <v>0.0683760683760684</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H22">
-        <v>0.871794871794872</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.395</v>
+        <v>0.445</v>
       </c>
       <c r="K22">
-        <v>0.0151518543956044</v>
+        <v>0.0039945317840054</v>
       </c>
       <c r="L22">
-        <v>0.0016723901098901</v>
+        <v>-0.0016587141091241</v>
       </c>
       <c r="M22">
-        <v>0.0323192583904757</v>
+        <v>0.0158645326207391</v>
       </c>
       <c r="N22">
-        <v>3.8359125052163</v>
+        <v>0.897647591911341</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q22">
         <v>1821031.91</v>
@@ -2101,19 +2104,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2136,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.100119105710691</v>
+        <v>0.385672360907257</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.837606837606838</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.79</v>
+        <v>0.835</v>
       </c>
       <c r="K23">
-        <v>0.0127625770610968</v>
+        <v>0.0019991789819376</v>
       </c>
       <c r="L23">
-        <v>-0.0029199834812354</v>
+        <v>-0.0131889059281178</v>
       </c>
       <c r="M23">
-        <v>0.0280700581647117</v>
+        <v>0.0139942528735632</v>
       </c>
       <c r="N23">
-        <v>1.61551608368314</v>
+        <v>0.239422632567378</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1821031.91</v>
@@ -2172,19 +2175,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2207,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.278157074079418</v>
+        <v>0.911377791747384</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.521367521367521</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
       <c r="K24">
-        <v>0.0003075373025393</v>
+        <v>-0.0009907323688969</v>
       </c>
       <c r="L24">
-        <v>-0.0006487242004833</v>
+        <v>-0.0017476076555023</v>
       </c>
       <c r="M24">
-        <v>0.0015051510989011</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.18283577899731</v>
+        <v>-3.88522497606637</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1821031.91</v>
@@ -2243,19 +2246,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2278,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.684381247228613</v>
+        <v>0.922754931062317</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.9401709401709401</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
-        <v>-0.016192119910165</v>
+        <v>-0.0724008885850991</v>
       </c>
       <c r="L25">
-        <v>-0.107755402016219</v>
+        <v>-0.183015235197063</v>
       </c>
       <c r="M25">
-        <v>0.0478615056345393</v>
+        <v>0.0136092605506888</v>
       </c>
       <c r="N25">
-        <v>-0.652908060893751</v>
+        <v>-2.89603554340396</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1821031.91</v>
@@ -2314,19 +2317,19 @@
         <v>5545591.67</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,7 +2349,7 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.40324797025367</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2358,25 +2361,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.441</v>
+        <v>0.35</v>
       </c>
       <c r="K26">
-        <v>-0.0316569861818887</v>
+        <v>-0.0408703864384334</v>
       </c>
       <c r="L26">
-        <v>-0.0913187742954448</v>
+        <v>-0.171764257787823</v>
       </c>
       <c r="M26">
         <v>0.0316237267544153</v>
       </c>
       <c r="N26">
-        <v>-7.17845491652804</v>
+        <v>-11.6772532681238</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1821031.91</v>
@@ -2385,16 +2388,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,25 +2429,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>89</v>
+        <v>89.09</v>
       </c>
       <c r="K27">
-        <v>1.44990260461459</v>
+        <v>-0.7252631233036571</v>
       </c>
       <c r="L27">
-        <v>-8.45184236069189</v>
+        <v>-17.6041989778664</v>
       </c>
       <c r="M27">
-        <v>10.2742696551701</v>
+        <v>6.67578235306717</v>
       </c>
       <c r="N27">
-        <v>1.62910405012875</v>
+        <v>-0.8140791596179781</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1821031.91</v>
@@ -2453,16 +2456,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,25 +2497,25 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5.787</v>
+        <v>5.04</v>
       </c>
       <c r="K28">
-        <v>-0.725948001373329</v>
+        <v>-0.657296270011932</v>
       </c>
       <c r="L28">
-        <v>-0.964761591198501</v>
+        <v>-1.80129101154089</v>
       </c>
       <c r="M28">
         <v>0.174627066662813</v>
       </c>
       <c r="N28">
-        <v>-12.5444617482863</v>
+        <v>-13.0415926589669</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1821031.91</v>
@@ -2521,16 +2524,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2550,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.762862824616335</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2565,22 +2568,22 @@
         <v>0.361</v>
       </c>
       <c r="K29">
-        <v>0.0127877461706783</v>
+        <v>-0.0055977011494252</v>
       </c>
       <c r="L29">
-        <v>-0.0172662887545533</v>
+        <v>-0.0325675016464965</v>
       </c>
       <c r="M29">
-        <v>0.0299770834715587</v>
+        <v>0.0136971845390919</v>
       </c>
       <c r="N29">
-        <v>3.54231195863666</v>
+        <v>-1.5506097366829</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1821031.91</v>
@@ -2589,16 +2592,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,25 +2633,25 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>92.5</v>
+        <v>90.545</v>
       </c>
       <c r="K30">
-        <v>-0.465553884026258</v>
+        <v>-0.494591670544439</v>
       </c>
       <c r="L30">
-        <v>-1.83232247353283</v>
+        <v>-1.93020604601759</v>
       </c>
       <c r="M30">
-        <v>1.83741185208213</v>
+        <v>1.27280837505262</v>
       </c>
       <c r="N30">
-        <v>-0.503301496244603</v>
+        <v>-0.546238522883029</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1821031.91</v>
@@ -2657,16 +2660,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2686,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.762862824616335</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2701,22 +2704,22 @@
         <v>5.4135</v>
       </c>
       <c r="K31">
-        <v>0.123826487991646</v>
+        <v>-0.127472080037227</v>
       </c>
       <c r="L31">
-        <v>-0.225044357289284</v>
+        <v>-0.63300284584101</v>
       </c>
       <c r="M31">
-        <v>0.297043086376326</v>
+        <v>0.126423931093869</v>
       </c>
       <c r="N31">
-        <v>2.28736469920839</v>
+        <v>-2.35470730649721</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1821031.91</v>
@@ -2725,16 +2728,16 @@
         <v>5545591.67</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
